--- a/results/pvalue_SIDER_all_pathway_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.086</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.316</t>
+          <t>0.563</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.264</t>
+          <t>8.939</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.178</t>
+          <t>7.986</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.053</t>
+          <t>5.969</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.145</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.152</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>12.162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12.117</t>
+          <t>12.119</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.949</t>
+          <t>12.951</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.458</t>
+          <t>8.459</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>7.476</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
